--- a/biology/Origine et évolution du vivant/Le_Pouce_du_panda/Le_Pouce_du_panda.xlsx
+++ b/biology/Origine et évolution du vivant/Le_Pouce_du_panda/Le_Pouce_du_panda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Pouce du Panda (The Panda's Thumb, en anglais), est un livre de vulgarisation scientifique de Stephen Jay Gould sorti en 1980. Il s'agit du second tome de la compilation des essais parus dans la chronique This view of life du mensuel Natural History.
@@ -512,7 +524,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le livre se décompose en 8 parties comprenant au total 31 chapitres.
 Prologue
